--- a/scoring/tests/Raven/Raven9Q_test_2.xlsx
+++ b/scoring/tests/Raven/Raven9Q_test_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="outputs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="outputs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5-</t>
+          <t>95+</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5-</t>
+          <t>95+</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5-</t>
+          <t>95+</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>135</t>
         </is>
       </c>
     </row>
